--- a/Data_Code/data_variables_used.xlsx
+++ b/Data_Code/data_variables_used.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\krea\PIAAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\ML_Assignment_2021\ML_term_paper\Data_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="3593"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="3593" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="variables_original_df" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1607">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -4620,12 +4620,6 @@
     <t>Current status/work history - Current - Paid job or family business (DERIVED BY CAPI)</t>
   </si>
   <si>
-    <t>c_d07</t>
-  </si>
-  <si>
-    <t>Current status/work history - Subjective status Question: Please look at this card and tell me which ONE of the statements best describes your current situation. If more than one statement applies to you, please indicate the statement that best describes how you see yourself.</t>
-  </si>
-  <si>
     <t>Current status/work history - Age when stopped working in last job Question: When you stopped working in your last paid job, how old were you/ - 10 categories</t>
   </si>
   <si>
@@ -4846,6 +4840,12 @@
   </si>
   <si>
     <t>Flag for unemployment</t>
+  </si>
+  <si>
+    <t>histogram</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -5234,7 +5234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
@@ -12559,10 +12559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12570,20 +12570,23 @@
     <col min="2" max="2" width="37.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1461</v>
       </c>
       <c r="B1" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -12591,7 +12594,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -12599,7 +12602,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1206</v>
       </c>
@@ -12607,7 +12610,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -12615,7 +12618,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1439</v>
       </c>
@@ -12623,7 +12626,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>1447</v>
       </c>
@@ -12631,31 +12634,40 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1359</v>
       </c>
       <c r="B9" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="B11" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>267</v>
       </c>
@@ -12663,7 +12675,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>271</v>
       </c>
@@ -12671,7 +12683,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>273</v>
       </c>
@@ -12679,31 +12691,40 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B15" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1299</v>
       </c>
       <c r="B16" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B17" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -12711,7 +12732,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -12719,7 +12740,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>1438</v>
       </c>
@@ -12727,7 +12748,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>325</v>
       </c>
@@ -12735,7 +12756,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>326</v>
       </c>
@@ -12743,7 +12764,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>327</v>
       </c>
@@ -12751,7 +12772,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>328</v>
       </c>
@@ -12759,31 +12780,40 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B25" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B26" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -12791,15 +12821,18 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -12807,7 +12840,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -12815,7 +12848,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -12905,6 +12938,9 @@
       <c r="B42" t="s">
         <v>1503</v>
       </c>
+      <c r="C42" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
@@ -12921,6 +12957,9 @@
       <c r="B44" t="s">
         <v>1505</v>
       </c>
+      <c r="C44" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
@@ -12937,6 +12976,9 @@
       <c r="B46" t="s">
         <v>1507</v>
       </c>
+      <c r="C46" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
@@ -12953,8 +12995,11 @@
       <c r="B48" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>1384</v>
       </c>
@@ -12962,7 +13007,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -12970,39 +13015,51 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B51" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B52" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B54" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
@@ -13010,7 +13067,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
@@ -13018,7 +13075,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -13026,7 +13083,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -13034,7 +13091,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -13042,7 +13099,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>78</v>
       </c>
@@ -13050,7 +13107,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>79</v>
       </c>
@@ -13058,7 +13115,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -13066,7 +13123,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -13074,7 +13131,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
@@ -13113,6 +13170,9 @@
       <c r="B68" t="s">
         <v>1529</v>
       </c>
+      <c r="C68" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
@@ -13124,23 +13184,23 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" t="s">
         <v>1531</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>112</v>
+        <v>1390</v>
       </c>
       <c r="B71" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>1390</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
         <v>1534</v>
@@ -13148,15 +13208,15 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>115</v>
+        <v>1391</v>
       </c>
       <c r="B73" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B74" t="s">
         <v>1535</v>
@@ -13164,50 +13224,50 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>1392</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C76" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
         <v>1539</v>
       </c>
-      <c r="C77" t="s">
-        <v>1540</v>
-      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>122</v>
+        <v>1394</v>
       </c>
       <c r="B79" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>1394</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
         <v>1543</v>
@@ -13215,15 +13275,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>123</v>
+        <v>1397</v>
       </c>
       <c r="B81" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>1397</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
         <v>1544</v>
@@ -13231,431 +13291,431 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>128</v>
+        <v>1400</v>
       </c>
       <c r="B87" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>1400</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>145</v>
+        <v>1402</v>
       </c>
       <c r="B93" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="B94" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>1408</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>155</v>
+        <v>1416</v>
       </c>
       <c r="B98" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>1416</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>156</v>
+        <v>1418</v>
       </c>
       <c r="B100" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>1418</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>157</v>
+        <v>1419</v>
       </c>
       <c r="B102" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B103" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B104" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>1421</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B108" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B109" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B112" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B113" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B114" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B115" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B116" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B117" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B118" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>219</v>
+        <v>1316</v>
       </c>
       <c r="B119" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B120" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B121" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B122" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>1322</v>
+        <v>1458</v>
       </c>
       <c r="B123" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B124" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>1459</v>
+        <v>345</v>
       </c>
       <c r="B125" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B126" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B127" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B128" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B129" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B130" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B131" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B132" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B133" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B134" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B135" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B136" t="s">
         <v>1599</v>
@@ -13663,15 +13723,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B137" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B138" t="s">
         <v>1600</v>
@@ -13679,42 +13739,34 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B139" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>362</v>
+        <v>1310</v>
       </c>
       <c r="B140" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>1310</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>7</v>
+        <v>1455</v>
       </c>
       <c r="B142" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
   </sheetData>
